--- a/webform testing.xlsx
+++ b/webform testing.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
+    <sheet name="Тест кейсы" sheetId="5" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
+    <sheet name="Bug report" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="264">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -655,6 +658,196 @@
   </si>
   <si>
     <t>P-10</t>
+  </si>
+  <si>
+    <t>OS: Windows 10 Home</t>
+  </si>
+  <si>
+    <t>Браузер: Версия 105.0.5195.127</t>
+  </si>
+  <si>
+    <t>BR-1</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Фавикон веб-страницы 
+отличается от требуемого</t>
+  </si>
+  <si>
+    <t>Зайти на сайт 
+http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>1. Проверить фавикон сайта</t>
+  </si>
+  <si>
+    <t>"Глобус"</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>BR-2</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок сайта</t>
+  </si>
+  <si>
+    <t>Demo Form</t>
+  </si>
+  <si>
+    <t>BR-3</t>
+  </si>
+  <si>
+    <t>заголовок веб-страницы "Demo Form",  вместо "Registration form"</t>
+  </si>
+  <si>
+    <t>заголовок формы регистрации "ITCareerToday web form",  вместо "Registration form"</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок 
+формы регистрации</t>
+  </si>
+  <si>
+    <t>ITCareerToday
+ web form</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC-4</t>
+  </si>
+  <si>
+    <t>TC-5</t>
+  </si>
+  <si>
+    <t>TC-6</t>
+  </si>
+  <si>
+    <t>TC-7</t>
+  </si>
+  <si>
+    <t>TC-8</t>
+  </si>
+  <si>
+    <t>TC-9</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>TC-12</t>
+  </si>
+  <si>
+    <t>TC-13</t>
+  </si>
+  <si>
+    <t>TC-14</t>
+  </si>
+  <si>
+    <t>TC-15</t>
+  </si>
+  <si>
+    <t>TC-16</t>
+  </si>
+  <si>
+    <t>TC-17</t>
+  </si>
+  <si>
+    <t>TC-18</t>
+  </si>
+  <si>
+    <t>TC-19</t>
+  </si>
+  <si>
+    <t>TC-20</t>
+  </si>
+  <si>
+    <t>TC-21</t>
+  </si>
+  <si>
+    <t>TC-22</t>
+  </si>
+  <si>
+    <t>TC-23</t>
+  </si>
+  <si>
+    <t>TC-24</t>
+  </si>
+  <si>
+    <t>TC-25</t>
+  </si>
+  <si>
+    <t>TC-26</t>
+  </si>
+  <si>
+    <t>TC-27</t>
+  </si>
+  <si>
+    <t>TC-28</t>
+  </si>
+  <si>
+    <t>TC-29</t>
+  </si>
+  <si>
+    <t>TC-30</t>
+  </si>
+  <si>
+    <t>TC-31</t>
+  </si>
+  <si>
+    <t>TC-32</t>
+  </si>
+  <si>
+    <t>TC-33</t>
+  </si>
+  <si>
+    <t>TC-34</t>
+  </si>
+  <si>
+    <t>TC-35</t>
   </si>
 </sst>
 </file>
@@ -685,7 +878,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,18 +887,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
+        <fgColor rgb="FFE0D0FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0D0FC"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -920,104 +1131,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,6 +1343,213 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>441324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="64054" t="9170" r="35088" b="89423"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="790575"/>
+          <a:ext cx="238125" cy="222249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8562975" y="819150"/>
+          <a:ext cx="257175" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10944225" y="1247775"/>
+          <a:ext cx="1781175" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1857846</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>462643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11062607" y="1876425"/>
+          <a:ext cx="1844239" cy="243568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1365,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,1004 +1857,1007 @@
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="4">
         <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="12"/>
+      <c r="B62" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="14"/>
+      <c r="C62" s="28"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="7">
         <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="32"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="27" t="s">
+      <c r="A85" s="15"/>
+      <c r="B85" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="28"/>
+      <c r="C85" s="34"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2395,4 +2877,616 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="53"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="53"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="53"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="53"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="53"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="53"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="53"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="53"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="53"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="53"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="53"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="53"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="53"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="53"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="53"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/webform testing.xlsx
+++ b/webform testing.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
-    <sheet name="Тест кейсы" sheetId="5" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
+    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId2"/>
+    <sheet name="Тест кейсы" sheetId="5" r:id="rId3"/>
     <sheet name="Bug report" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="351">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -849,17 +849,368 @@
   <si>
     <t>TC-35</t>
   </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности для поля Name</t>
+  </si>
+  <si>
+    <t>EC-1</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+от 2 до 128 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+0 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+&lt;2 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+&gt;128 символов</t>
+  </si>
+  <si>
+    <t>EC-2</t>
+  </si>
+  <si>
+    <t>EC-3</t>
+  </si>
+  <si>
+    <t>EC-4</t>
+  </si>
+  <si>
+    <t>Name:Test</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test  Testovich"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Name: T</t>
+  </si>
+  <si>
+    <t>Name:
+Test12345678901213131414141415245415145145342545234523451123123123123123123123123123123123123123123123112321312312312312312312312</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Surname:Testovich
+Email:testing@mail.com
+Password:qwerty123</t>
+  </si>
+  <si>
+    <t>Ввести данные в поля:
+Surname:Testovich
+Email:testing@mail.com
+Password:qwerty123</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Error!  All Fields is Required" в красной рамке и поле подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности для поля Surname</t>
+  </si>
+  <si>
+    <t>EC-5</t>
+  </si>
+  <si>
+    <t>EC-6</t>
+  </si>
+  <si>
+    <t>EC-7</t>
+  </si>
+  <si>
+    <t>EC-8</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 
+от 2 до 128 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 
+0 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 
+&lt;2 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 
+&gt;128 символов</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности для поля Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Email:testing@mail.com
+Password:qwerty123</t>
+  </si>
+  <si>
+    <t>Surname:Testovich</t>
+  </si>
+  <si>
+    <t>Surname:</t>
+  </si>
+  <si>
+    <t>Surname: T</t>
+  </si>
+  <si>
+    <t>Surname:
+TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich123</t>
+  </si>
+  <si>
+    <t>EC-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Password:qwerty123</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя почтового ящика (до @)  от 4 до 64 символов, 
+Имя домена (после @ и до последней . ) от 2 до 32 символов,  Имя домена (после последней . ) от 2 до 16 символов</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mail.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя почтового ящика (до @)  0 символов</t>
+  </si>
+  <si>
+    <t>EC-10</t>
+  </si>
+  <si>
+    <t>EC-11</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя почтового ящика (до @)  &lt; 4  символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: tes@mail.com
+</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя почтового ящика (до @)  &gt; 64  символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: testingtestingtestingtestingtestingtestingtestingtestingtesting12@mail.com
+</t>
+  </si>
+  <si>
+    <t>EC-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: 
+@mail.com
+</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  0 символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Password:qwerty124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Password:qwerty125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Password:qwerty126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Password:qwerty127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Password:qwerty128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Password:qwerty129</t>
+  </si>
+  <si>
+    <t>Email:
+testing@.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  &lt;2  символов</t>
+  </si>
+  <si>
+    <t>Email:
+testing@m.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  &gt;32  символов</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mailmailmailmailmailmailmailmail3.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после последней . ) 0 символов</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mail.</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после последней . ) &lt;2 символов</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mail.c</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после последней . ) &gt;16 символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Email:
+testing@mail.comcomcomcomcomco</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности для поля Password</t>
+  </si>
+  <si>
+    <t>EC-13</t>
+  </si>
+  <si>
+    <t>EC-14</t>
+  </si>
+  <si>
+    <t>EC-15</t>
+  </si>
+  <si>
+    <t>EC-16</t>
+  </si>
+  <si>
+    <t>EC-17</t>
+  </si>
+  <si>
+    <t>EC-18</t>
+  </si>
+  <si>
+    <t>EC-19</t>
+  </si>
+  <si>
+    <t>EC-20</t>
+  </si>
+  <si>
+    <t>EC-21</t>
+  </si>
+  <si>
+    <t>EC-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Email:testing@mail.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+от 8 до 16 символов</t>
+  </si>
+  <si>
+    <t>Password: qwerty123</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+0 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+&lt;8 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+&gt; 16 символов</t>
+  </si>
+  <si>
+    <t>Password:</t>
+  </si>
+  <si>
+    <t>Password: qwerty</t>
+  </si>
+  <si>
+    <t>Password: 
+qwerty12312312312</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,8 +1228,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +1280,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,108 +1521,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1279,20 +1612,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1846,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,20 +2271,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1879,7 +2292,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1890,7 +2303,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1899,7 +2312,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1908,7 +2321,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +2330,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1928,7 +2341,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1937,7 +2350,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +2376,7 @@
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1975,7 +2388,7 @@
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1989,11 +2402,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2005,13 +2418,13 @@
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2022,7 +2435,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2031,7 +2444,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -2040,7 +2453,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="52" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2051,7 +2464,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2060,7 +2473,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -2069,7 +2482,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -2384,10 +2797,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="30"/>
+      <c r="C51" s="39"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2501,10 +2914,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="28"/>
+      <c r="C62" s="41"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2618,10 +3031,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="32"/>
+      <c r="C73" s="43"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2746,10 +3159,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="34"/>
+      <c r="C85" s="45"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -2881,10 +3294,1034 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CE55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+    </row>
+    <row r="26" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BG30" s="37"/>
+      <c r="BJ30" s="37"/>
+      <c r="BM30" s="37"/>
+      <c r="BP30" s="37"/>
+      <c r="BS30" s="37"/>
+      <c r="BV30" s="37"/>
+      <c r="BY30" s="37"/>
+      <c r="CB30" s="37"/>
+      <c r="CE30" s="37"/>
+    </row>
+    <row r="31" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AX31" s="37"/>
+      <c r="BA31" s="37"/>
+      <c r="BD31" s="37"/>
+      <c r="BG31" s="37"/>
+      <c r="BJ31" s="37"/>
+      <c r="BM31" s="37"/>
+      <c r="BP31" s="37"/>
+      <c r="BS31" s="37"/>
+      <c r="BV31" s="37"/>
+      <c r="BY31" s="37"/>
+      <c r="CB31" s="37"/>
+      <c r="CE31" s="37"/>
+    </row>
+    <row r="32" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BG32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BP32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BV32" s="37"/>
+      <c r="BY32" s="37"/>
+      <c r="CB32" s="37"/>
+      <c r="CE32" s="37"/>
+    </row>
+    <row r="33" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BM33" s="37"/>
+      <c r="BP33" s="37"/>
+      <c r="BS33" s="37"/>
+      <c r="BV33" s="37"/>
+      <c r="BY33" s="37"/>
+      <c r="CB33" s="37"/>
+      <c r="CE33" s="37"/>
+    </row>
+    <row r="34" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BP34" s="37"/>
+      <c r="BS34" s="37"/>
+      <c r="BV34" s="37"/>
+      <c r="BY34" s="37"/>
+      <c r="CB34" s="37"/>
+      <c r="CE34" s="37"/>
+    </row>
+    <row r="35" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AO35" s="37"/>
+      <c r="AR35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BM35" s="37"/>
+      <c r="BP35" s="37"/>
+      <c r="BS35" s="37"/>
+      <c r="BV35" s="37"/>
+      <c r="BY35" s="37"/>
+      <c r="CB35" s="37"/>
+      <c r="CE35" s="37"/>
+    </row>
+    <row r="36" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BV36" s="37"/>
+      <c r="BY36" s="37"/>
+      <c r="CB36" s="37"/>
+      <c r="CE36" s="37"/>
+    </row>
+    <row r="37" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BJ37" s="37"/>
+      <c r="BM37" s="37"/>
+      <c r="BP37" s="37"/>
+      <c r="BS37" s="37"/>
+      <c r="BV37" s="37"/>
+      <c r="BY37" s="37"/>
+      <c r="CB37" s="37"/>
+      <c r="CE37" s="37"/>
+    </row>
+    <row r="38" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BS38" s="37"/>
+      <c r="BV38" s="37"/>
+      <c r="BY38" s="37"/>
+      <c r="CB38" s="37"/>
+      <c r="CE38" s="37"/>
+    </row>
+    <row r="39" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B40" s="37"/>
+      <c r="E40" s="37"/>
+    </row>
+    <row r="41" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C41" s="37"/>
+    </row>
+    <row r="42" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C42" s="37"/>
+    </row>
+    <row r="43" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C43" s="37"/>
+    </row>
+    <row r="44" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C44" s="37"/>
+    </row>
+    <row r="45" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C45" s="37"/>
+    </row>
+    <row r="46" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C46" s="37"/>
+    </row>
+    <row r="47" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C47" s="37"/>
+    </row>
+    <row r="48" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="C48" s="37"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="37"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="37"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="37"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="37"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="37"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="37"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A25:H25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C6" location="Требования!R35C1" display="F-12/1"/>
+    <hyperlink ref="C7" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C8" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C10" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C11" location="Требования!R36C1" display="F-12/2"/>
+    <hyperlink ref="C12" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C13" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C15" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C16" location="Требования!R37C1" display="F-12/2"/>
+    <hyperlink ref="C19" location="Требования!R37C1" display="F-12/2"/>
+    <hyperlink ref="C22" location="Требования!R37C1" display="F-12/2"/>
+    <hyperlink ref="C24" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C26" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C27" location="Требования!R38C1" display="F-12/4"/>
+    <hyperlink ref="C28" location="Требования!R43C1" display="F-13/2"/>
+    <hyperlink ref="C29" location="Требования!R43C1" display="F-13/2"/>
+    <hyperlink ref="C23" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C21" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C20" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C17" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C18" location="Требования!R42C1" display="F-13/2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,203 +4336,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -3103,10 +4540,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3114,7 +4551,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="33" t="s">
         <v>246</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3122,7 +4559,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="33" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3130,7 +4567,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="33" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3138,7 +4575,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="33" t="s">
         <v>249</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3146,7 +4583,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="33" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3154,7 +4591,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="33" t="s">
         <v>251</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3162,7 +4599,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="33" t="s">
         <v>252</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3170,7 +4607,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="33" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3178,7 +4615,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="33" t="s">
         <v>254</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -3186,7 +4623,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="33" t="s">
         <v>255</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3194,7 +4631,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="33" t="s">
         <v>256</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3202,7 +4639,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="33" t="s">
         <v>257</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3210,7 +4647,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="33" t="s">
         <v>258</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3218,7 +4655,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="33" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3226,7 +4663,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="33" t="s">
         <v>260</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3234,7 +4671,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="33" t="s">
         <v>261</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3242,7 +4679,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="33" t="s">
         <v>262</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -3250,7 +4687,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="33" t="s">
         <v>263</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -3261,73 +4698,61 @@
     <row r="37" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="53"/>
+      <c r="C39" s="37"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="53"/>
+      <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="53"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="53"/>
+      <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="53"/>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="53"/>
+      <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="53"/>
+      <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="53"/>
+      <c r="C46" s="37"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="53"/>
+      <c r="C47" s="37"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="53"/>
+      <c r="C48" s="37"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="53"/>
+      <c r="C49" s="37"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="53"/>
+      <c r="C50" s="37"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="53"/>
+      <c r="C51" s="37"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="53"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="53"/>
+      <c r="C53" s="37"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="53"/>
+      <c r="C54" s="37"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="53"/>
+      <c r="C55" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3351,133 +4776,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="44"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="28" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/webform testing.xlsx
+++ b/webform testing.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
     <sheet name="Классы эквивалентности" sheetId="6" r:id="rId2"/>
-    <sheet name="Тест кейсы" sheetId="5" r:id="rId3"/>
-    <sheet name="Bug report" sheetId="2" r:id="rId4"/>
+    <sheet name="Граничные значения" sheetId="7" r:id="rId3"/>
+    <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
+    <sheet name="Bug report" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="470">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -1191,6 +1192,440 @@
   <si>
     <t>Password: 
 qwerty12312312312</t>
+  </si>
+  <si>
+    <t>Граничные значения для поля Name</t>
+  </si>
+  <si>
+    <t>LV-1</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+минимальное кол-во символов: 2</t>
+  </si>
+  <si>
+    <t>Name:Te</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Te  Testovich"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+минимальное кол-во символов-1: 1</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+минимальное кол-во символов+1: 3</t>
+  </si>
+  <si>
+    <t>Name: Tes</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Tes  Testovich"  в голубой рамке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Name 
+максимальное кол-во символов: 128 </t>
+  </si>
+  <si>
+    <t>Name:
+Test1234567890121313141414141524541514514534254523452345112312312312312312312312312312312312312312312311232131231231231231231231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Name 
+максимальное кол-во символов-1: 127 </t>
+  </si>
+  <si>
+    <t>Name:
+Test123456789012131314141414152454151451453425452345234511231231231231231231231231231231231231231231231123213123123123123123123</t>
+  </si>
+  <si>
+    <t>Граничные значения для поля Surname</t>
+  </si>
+  <si>
+    <t>LV-2</t>
+  </si>
+  <si>
+    <t>LV-3</t>
+  </si>
+  <si>
+    <t>LV-4</t>
+  </si>
+  <si>
+    <t>LV-5</t>
+  </si>
+  <si>
+    <t>LV-6</t>
+  </si>
+  <si>
+    <t>LV-7</t>
+  </si>
+  <si>
+    <t>LV-8</t>
+  </si>
+  <si>
+    <t>LV-9</t>
+  </si>
+  <si>
+    <t>LV-10</t>
+  </si>
+  <si>
+    <t>LV-11</t>
+  </si>
+  <si>
+    <t>LV-12</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname
+минимальное кол-во символов: 2</t>
+  </si>
+  <si>
+    <t>Surname:Te</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test  Te"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname
+минимальное кол-во символов+1: 3</t>
+  </si>
+  <si>
+    <t>Surname:Tes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Surname 
+максимальное кол-во символов: 128 </t>
+  </si>
+  <si>
+    <t>Surname:
+TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Surname 
+максимальное кол-во символов-1: 127 </t>
+  </si>
+  <si>
+    <t>Surname:
+TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich1</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname  
+минимальное кол-во символов-1: 1</t>
+  </si>
+  <si>
+    <t>Surname:T</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 
+Максимальное кол-во символов+1: 129</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname  
+Максимальное кол-во символов+1: 129</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test  T"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test  TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich123"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test  TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich1"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test  TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich12"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test  Tes"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello:  Test  TestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovichTestovich12"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test1234567890121313141414141524541514514534254523452345112312312312312312312312312312312312312312312311232131231231231231231231  Testovich"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается 
+сообщение "Success Hello: Test123456789012131314141414152454151451453425452345234511231231231231231231231231231231231231231231231123213123123123123123123  Testovich"  в голубой рамке</t>
+  </si>
+  <si>
+    <t>LV-13</t>
+  </si>
+  <si>
+    <t>Оставить поле Email пустым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Email:
+</t>
+  </si>
+  <si>
+    <t>Граничные значения для поля Email</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email Имя почтового ящика (до @)
+минимальное кол-во символов: 4</t>
+  </si>
+  <si>
+    <t>Email:
+test@mail.com</t>
+  </si>
+  <si>
+    <t>LV-14</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email Имя почтового ящика (до @)
+минимальное кол-во символов+1: 5</t>
+  </si>
+  <si>
+    <t>Email:
+testi@mail.com</t>
+  </si>
+  <si>
+    <t>LV-15</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email Имя почтового ящика (до @)
+максимальное кол-во символов: 64</t>
+  </si>
+  <si>
+    <t>Email:
+testingtestingtestingtestingtestingtestingtestingtestingtestinga@mail.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email Имя почтового ящика (до @)
+максимальное кол-во символов-1: 63</t>
+  </si>
+  <si>
+    <t>Email:
+testingtestingtestingtestingtestingtestingtestingtestingtestin@mail.com</t>
+  </si>
+  <si>
+    <t>LV-16</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email Имя почтового ящика (до @)
+минимальное кол-во символов-1: 3</t>
+  </si>
+  <si>
+    <t>Email:
+tes@mail.com</t>
+  </si>
+  <si>
+    <t>LV-17</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email Имя почтового ящика (до @)
+максимальное кол-во символов+1: 65</t>
+  </si>
+  <si>
+    <t>LV-18</t>
+  </si>
+  <si>
+    <t>Email:
+testingtestingtestingtestingtestingtestingtestingtestingtestingas@mail.com</t>
+  </si>
+  <si>
+    <t>LV-19</t>
+  </si>
+  <si>
+    <t>Email:
+testing@ma.com</t>
+  </si>
+  <si>
+    <t>LV-20</t>
+  </si>
+  <si>
+    <t>LV-21</t>
+  </si>
+  <si>
+    <t>LV-22</t>
+  </si>
+  <si>
+    <t>LV-23</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  минимальное кол-во символов: 2</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  минимальное кол-во символов+1: 3</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mai.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  максимальное кол-во символов: 32</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mailmailmailmailmailmailmailmail.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  максимальное кол-во символов-1: 31</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mailmailmailmailmailmailmailmai.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  максимальное кол-во символов+1: 33</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mailmailmailmailmailmailmailmailm.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после @ и до последней . )  минимальное кол-во символов-1: 1</t>
+  </si>
+  <si>
+    <t>LV-24</t>
+  </si>
+  <si>
+    <t>LV-25</t>
+  </si>
+  <si>
+    <t>LV-26</t>
+  </si>
+  <si>
+    <t>LV-27</t>
+  </si>
+  <si>
+    <t>LV-28</t>
+  </si>
+  <si>
+    <t>LV-29</t>
+  </si>
+  <si>
+    <t>LV-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email 
+Имя домена (после последней . ) минимальное кол-во символов : 2 </t>
+  </si>
+  <si>
+    <t>Email:
+testing@mail.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email 
+Имя домена (после последней . ) минимальное кол-во символов+1 : 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email 
+Имя домена (после последней . ) максимальное кол-во символов :16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email 
+Имя домена (после последней . ) максимальное кол-во символов-1 :15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email 
+Имя домена (после последней . ) максимальное кол-во символов+1 :17 </t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 
+Имя домена (после последней . ) минимальное кол-во символов-1 : 1</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mail.comcomcomcomcomm</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mail.comcomcomcomcom</t>
+  </si>
+  <si>
+    <t>Email:
+testing@mail.comcomcomcomcommm</t>
+  </si>
+  <si>
+    <t>LV-31</t>
+  </si>
+  <si>
+    <t>LV-32</t>
+  </si>
+  <si>
+    <t>LV-33</t>
+  </si>
+  <si>
+    <t>LV-34</t>
+  </si>
+  <si>
+    <t>LV-35</t>
+  </si>
+  <si>
+    <t>LV-36</t>
+  </si>
+  <si>
+    <t>Ввести данные в поля:
+Name:Test
+Surname:Testovich
+Email:testing@mail.com</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+минимальное кол-во символов: 2</t>
+  </si>
+  <si>
+    <t>Password:
+qw</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+минимальное кол-во символов+1: 3</t>
+  </si>
+  <si>
+    <t>Password:
+qwe</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+максимальное кол-во символов: 16</t>
+  </si>
+  <si>
+    <t>Password:
+qwerty123qwerty1</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+максимальное кол-во символов-1: 15</t>
+  </si>
+  <si>
+    <t>Password:
+qwerty123qwerty</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+максимальное кол-во символов+1: 17</t>
+  </si>
+  <si>
+    <t>Password:
+qwerty123qwerty12</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 
+минимальное кол-во символов-1: 7</t>
+  </si>
+  <si>
+    <t>Password:
+qwerty1</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1624,6 +2059,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1675,33 +2138,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2259,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -2271,11 +2709,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -2292,7 +2730,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2303,7 +2741,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2312,7 +2750,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +2759,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -2330,7 +2768,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2341,7 +2779,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +2788,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -2403,10 +2841,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="51"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2424,7 +2862,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="61" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2435,7 +2873,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2882,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -2453,7 +2891,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2464,7 +2902,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2473,7 +2911,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -2482,7 +2920,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -2797,10 +3235,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="39"/>
+      <c r="C51" s="49"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2914,10 +3352,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="51"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3031,10 +3469,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="43"/>
+      <c r="C73" s="53"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -3159,10 +3597,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="45"/>
+      <c r="C85" s="55"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -3296,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,11 +3751,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -3325,11 +3763,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -3337,22 +3775,22 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="45" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -3364,10 +3802,10 @@
       <c r="E4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="45" t="s">
         <v>209</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -3378,10 +3816,10 @@
       <c r="A5" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -3390,13 +3828,13 @@
       <c r="E5" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="41" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3404,10 +3842,10 @@
       <c r="A6" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -3422,7 +3860,7 @@
       <c r="G6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3430,10 +3868,10 @@
       <c r="A7" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="40" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="30" t="s">
@@ -3448,7 +3886,7 @@
       <c r="G7" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3456,16 +3894,16 @@
       <c r="A8" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="40" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="38" t="s">
         <v>279</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -3474,45 +3912,45 @@
       <c r="G8" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="42" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="41" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3520,25 +3958,25 @@
       <c r="A11" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="40" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="46" t="s">
         <v>297</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3546,25 +3984,25 @@
       <c r="A12" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="40" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="46" t="s">
         <v>298</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3572,63 +4010,63 @@
       <c r="A13" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="40" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="47" t="s">
         <v>299</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="42" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="41" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3636,25 +4074,25 @@
       <c r="A16" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="38" t="s">
         <v>312</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3662,25 +4100,25 @@
       <c r="A17" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="38" t="s">
         <v>308</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3688,25 +4126,25 @@
       <c r="A18" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="38" t="s">
         <v>310</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3714,25 +4152,25 @@
       <c r="A19" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="38" t="s">
         <v>320</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3740,25 +4178,25 @@
       <c r="A20" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="38" t="s">
         <v>322</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3766,25 +4204,25 @@
       <c r="A21" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="38" t="s">
         <v>324</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3792,25 +4230,25 @@
       <c r="A22" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="38" t="s">
         <v>326</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3818,25 +4256,25 @@
       <c r="A23" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="38" t="s">
         <v>328</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3844,145 +4282,169 @@
       <c r="A24" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="38" t="s">
         <v>330</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="42" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-    </row>
-    <row r="26" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>280</v>
-      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>342</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="F27" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>284</v>
+      <c r="G27" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>342</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="42" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="C29" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="E29" s="55" t="s">
-        <v>350</v>
+      <c r="E29" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="42" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>284</v>
+      </c>
       <c r="K30" s="37"/>
       <c r="N30" s="37"/>
       <c r="Q30" s="37"/>
@@ -4225,10 +4687,7 @@
       <c r="CB38" s="37"/>
       <c r="CE38" s="37"/>
     </row>
-    <row r="39" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="E39" s="37"/>
-    </row>
+    <row r="39" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="E40" s="37"/>
@@ -4280,12 +4739,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" location="Требования!R33C1" display="F-11/3"/>
@@ -4301,15 +4760,16 @@
     <hyperlink ref="C19" location="Требования!R37C1" display="F-12/2"/>
     <hyperlink ref="C22" location="Требования!R37C1" display="F-12/2"/>
     <hyperlink ref="C24" location="Требования!R42C1" display="F-13/2"/>
-    <hyperlink ref="C26" location="Требования!R33C1" display="F-11/3"/>
-    <hyperlink ref="C27" location="Требования!R38C1" display="F-12/4"/>
-    <hyperlink ref="C28" location="Требования!R43C1" display="F-13/2"/>
+    <hyperlink ref="C27" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C28" location="Требования!R38C1" display="F-12/4"/>
     <hyperlink ref="C29" location="Требования!R43C1" display="F-13/2"/>
+    <hyperlink ref="C30" location="Требования!R43C1" display="F-13/2"/>
     <hyperlink ref="C23" location="Требования!R42C1" display="F-13/2"/>
     <hyperlink ref="C21" location="Требования!R42C1" display="F-13/2"/>
     <hyperlink ref="C20" location="Требования!R42C1" display="F-13/2"/>
     <hyperlink ref="C17" location="Требования!R42C1" display="F-13/2"/>
     <hyperlink ref="C18" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C25" location="Требования!R42C1" display="F-13/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4317,6 +4777,1471 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CE55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+    </row>
+    <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="N27" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="S27" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="P30" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="S30" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="T30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BG30" s="37"/>
+      <c r="BJ30" s="37"/>
+      <c r="BM30" s="37"/>
+      <c r="BP30" s="37"/>
+      <c r="BS30" s="37"/>
+      <c r="BV30" s="37"/>
+      <c r="BY30" s="37"/>
+      <c r="CB30" s="37"/>
+      <c r="CE30" s="37"/>
+    </row>
+    <row r="31" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AX31" s="37"/>
+      <c r="BA31" s="37"/>
+      <c r="BD31" s="37"/>
+      <c r="BG31" s="37"/>
+      <c r="BJ31" s="37"/>
+      <c r="BM31" s="37"/>
+      <c r="BP31" s="37"/>
+      <c r="BS31" s="37"/>
+      <c r="BV31" s="37"/>
+      <c r="BY31" s="37"/>
+      <c r="CB31" s="37"/>
+      <c r="CE31" s="37"/>
+    </row>
+    <row r="32" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BG32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BP32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BV32" s="37"/>
+      <c r="BY32" s="37"/>
+      <c r="CB32" s="37"/>
+      <c r="CE32" s="37"/>
+    </row>
+    <row r="33" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BM33" s="37"/>
+      <c r="BP33" s="37"/>
+      <c r="BS33" s="37"/>
+      <c r="BV33" s="37"/>
+      <c r="BY33" s="37"/>
+      <c r="CB33" s="37"/>
+      <c r="CE33" s="37"/>
+    </row>
+    <row r="34" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BP34" s="37"/>
+      <c r="BS34" s="37"/>
+      <c r="BV34" s="37"/>
+      <c r="BY34" s="37"/>
+      <c r="CB34" s="37"/>
+      <c r="CE34" s="37"/>
+    </row>
+    <row r="35" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AO35" s="37"/>
+      <c r="AR35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BM35" s="37"/>
+      <c r="BP35" s="37"/>
+      <c r="BS35" s="37"/>
+      <c r="BV35" s="37"/>
+      <c r="BY35" s="37"/>
+      <c r="CB35" s="37"/>
+      <c r="CE35" s="37"/>
+    </row>
+    <row r="36" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BV36" s="37"/>
+      <c r="BY36" s="37"/>
+      <c r="CB36" s="37"/>
+      <c r="CE36" s="37"/>
+    </row>
+    <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="K37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BJ37" s="37"/>
+      <c r="BM37" s="37"/>
+      <c r="BP37" s="37"/>
+      <c r="BS37" s="37"/>
+      <c r="BV37" s="37"/>
+      <c r="BY37" s="37"/>
+      <c r="CB37" s="37"/>
+      <c r="CE37" s="37"/>
+    </row>
+    <row r="38" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BS38" s="37"/>
+      <c r="BV38" s="37"/>
+      <c r="BY38" s="37"/>
+      <c r="CB38" s="37"/>
+      <c r="CE38" s="37"/>
+    </row>
+    <row r="39" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="C44" s="37"/>
+    </row>
+    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="C45" s="37"/>
+    </row>
+    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="C46" s="37"/>
+    </row>
+    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="C47" s="37"/>
+    </row>
+    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="C48" s="37"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="37"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="37"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="37"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="37"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="37"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="37"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:H18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="N27" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="N28" location="Требования!R38C1" display="F-12/4"/>
+    <hyperlink ref="N29" location="Требования!R43C1" display="F-13/2"/>
+    <hyperlink ref="N30" location="Требования!R43C1" display="F-13/2"/>
+    <hyperlink ref="C9" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C6" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C7" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C8" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C10" location="Требования!R40C1" display="F-13/1"/>
+    <hyperlink ref="C12" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C13" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C14" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C15" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C16" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C17" location="Требования!R41C1" display="F-13/2"/>
+    <hyperlink ref="C19" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C20" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C21" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C22" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C23" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C24" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C25" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C26" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C27" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C28" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C29" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C30" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C31" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C32" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C33" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C34" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C35" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C36" location="Требования!R42C1" display="F-13/2"/>
+    <hyperlink ref="C38" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C39" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C40" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C41" location="Требования!R33C1" display="F-11/3"/>
+    <hyperlink ref="C42" location="Требования!R43C1" display="F-13/2"/>
+    <hyperlink ref="C43" location="Требования!R43C1" display="F-13/2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
@@ -4336,18 +6261,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -4757,7 +6682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -4776,18 +6701,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">

--- a/webform testing.xlsx
+++ b/webform testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="510">
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
@@ -755,9 +755,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>TC-4</t>
-  </si>
-  <si>
     <t>TC-5</t>
   </si>
   <si>
@@ -1627,12 +1624,209 @@
     <t>Password:
 qwerty1</t>
   </si>
+  <si>
+    <t>TC-1</t>
+  </si>
+  <si>
+    <t>зайти на сайт 
+http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>Demo form</t>
+  </si>
+  <si>
+    <t>Проверка вкладки 
+страницы в браузере</t>
+  </si>
+  <si>
+    <t>Проверка фавикона 
+страницы в браузере</t>
+  </si>
+  <si>
+    <t>1. Проверить фавикон 
+страницы</t>
+  </si>
+  <si>
+    <t>1. Проверить на вкладке 
+браузера страницы &lt;title&gt;</t>
+  </si>
+  <si>
+    <t>Проверка протокола 
+страницы в браузере</t>
+  </si>
+  <si>
+    <t>Request URL: 
+http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>Request URL: 
+https://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>1. Зайти в DevTools
+2. Перейти на вкладку Network
+3.Обновить страницу
+4. Нажать на
+itcareer.pythonanywhere.com</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>1. Проверить &lt;header&gt; 
+страницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITCareerToday web form
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зайти на сайт 
+http://itcareer.pythonanywhere.com/
+</t>
+  </si>
+  <si>
+    <t>Заполнение обязательных полей для заполнения</t>
+  </si>
+  <si>
+    <t>Проверка  плейсхолдеров полей для заполнения</t>
+  </si>
+  <si>
+    <t>Name: "Name?"</t>
+  </si>
+  <si>
+    <t>1.Проверить  плейсхолдер для заполнения поля Name</t>
+  </si>
+  <si>
+    <t>1.Проверить  плейсхолдер для заполнения поля Surname</t>
+  </si>
+  <si>
+    <t>Surname: "Surname?"</t>
+  </si>
+  <si>
+    <t>1.Проверить  плейсхолдер для заполнения поля Email</t>
+  </si>
+  <si>
+    <t>Email: "Your email address."</t>
+  </si>
+  <si>
+    <t>1.Проверить  плейсхолдер для заполнения поля Password</t>
+  </si>
+  <si>
+    <t>Password: "Enter your password."</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля
+Surame: Testovich
+Email:testing@mail.ru
+Password: qwerty123</t>
+  </si>
+  <si>
+    <t>Поле Name является обязательным к заполнению, Под кнопкой "Submit" отображается сообщение "Error! All Fields are Required" в красной рамке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Заполнить поля Name: Test
+Surame: Testovich
+Password: qwerty123
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Поле Email не является обязательным к заполнению, Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test Testovich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Заполнить поля Name: Test
+Surame: Testovich
+Email: testing@mail.ru</t>
+  </si>
+  <si>
+    <r>
+      <t>Поле Password не является обязательным к заполнению, Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Test Testovich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  в голубой рамке</t>
+    </r>
+  </si>
+  <si>
+    <t>Клик по заполняемое поле</t>
+  </si>
+  <si>
+    <t>1.Кликнуть на заполняемое поле</t>
+  </si>
+  <si>
+    <t>1.Навести курсором на поля Name, Surname, Email, Password</t>
+  </si>
+  <si>
+    <t>Поля подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>Поля не изменяют свое состояние при наведении курсора</t>
+  </si>
+  <si>
+    <t>Поле подсвечивается голубой тенью, курсор мигает, плейсхолдер не изменяет свое состояние</t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Name:__Test
+2.Снять фокус с поля</t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Surname:__Testovich
+2.Снять фокус с поля</t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Email:testing@@mail.ru
+2.Снять фокус с поля</t>
+  </si>
+  <si>
+    <t>1.Ввести в поле Password:11111
+2.Снять фокус с поля</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1676,6 +1870,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1731,7 +1931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1955,12 +2155,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2047,15 +2260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2086,6 +2290,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2132,14 +2339,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2202,6 +2423,103 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1216025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>348191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="64054" t="9170" r="35088" b="89423"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="1314450"/>
+          <a:ext cx="158750" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12201525" y="1304925"/>
+          <a:ext cx="257175" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2697,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,11 +3027,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -2730,7 +3048,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2741,7 +3059,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2750,7 +3068,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2759,7 +3077,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -2768,7 +3086,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2779,7 +3097,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2788,7 +3106,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -2841,10 +3159,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="49"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2862,7 +3180,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2873,7 +3191,7 @@
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2882,7 +3200,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -2891,7 +3209,7 @@
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="60" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2902,7 +3220,7 @@
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2911,7 +3229,7 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
@@ -2920,7 +3238,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -3235,10 +3553,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="47"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3352,10 +3670,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="49"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3469,10 +3787,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="51"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -3597,10 +3915,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="55"/>
+      <c r="C85" s="53"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -3751,11 +4069,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -3763,11 +4081,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -3775,23 +4093,23 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="A3" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>264</v>
+      <c r="B4" s="42" t="s">
+        <v>263</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>229</v>
@@ -3800,12 +4118,12 @@
         <v>206</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="42" t="s">
         <v>209</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -3814,928 +4132,928 @@
     </row>
     <row r="5" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>280</v>
+      <c r="G5" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>278</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="42" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>280</v>
+      <c r="F10" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>296</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>297</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="C13" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>298</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="H13" s="42" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="A14" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="E15" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>280</v>
+      <c r="F15" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>312</v>
+      <c r="D16" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>311</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>284</v>
+      <c r="G16" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="C17" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>307</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>308</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>284</v>
+      <c r="G17" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>309</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>310</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>284</v>
+      <c r="G18" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="B19" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>320</v>
+      <c r="E19" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>284</v>
+      <c r="G19" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>321</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>322</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>284</v>
+      <c r="G20" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="B21" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>323</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>324</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>284</v>
+      <c r="G21" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B22" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>325</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>326</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>284</v>
+      <c r="G22" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>327</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>328</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>284</v>
+      <c r="G23" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B24" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>329</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>330</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>284</v>
+      <c r="G24" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B25" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>398</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>399</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>284</v>
+      <c r="G25" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
+      <c r="A26" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B27" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>280</v>
+      <c r="F27" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="C28" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>342</v>
+      <c r="D28" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>284</v>
+      <c r="G28" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="C29" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>342</v>
+      <c r="D29" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>284</v>
+      <c r="G29" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="B30" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>350</v>
+      <c r="E30" s="35" t="s">
+        <v>349</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AX30" s="37"/>
-      <c r="BA30" s="37"/>
-      <c r="BD30" s="37"/>
-      <c r="BG30" s="37"/>
-      <c r="BJ30" s="37"/>
-      <c r="BM30" s="37"/>
-      <c r="BP30" s="37"/>
-      <c r="BS30" s="37"/>
-      <c r="BV30" s="37"/>
-      <c r="BY30" s="37"/>
-      <c r="CB30" s="37"/>
-      <c r="CE30" s="37"/>
+      <c r="G30" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AL30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AU30" s="34"/>
+      <c r="AX30" s="34"/>
+      <c r="BA30" s="34"/>
+      <c r="BD30" s="34"/>
+      <c r="BG30" s="34"/>
+      <c r="BJ30" s="34"/>
+      <c r="BM30" s="34"/>
+      <c r="BP30" s="34"/>
+      <c r="BS30" s="34"/>
+      <c r="BV30" s="34"/>
+      <c r="BY30" s="34"/>
+      <c r="CB30" s="34"/>
+      <c r="CE30" s="34"/>
     </row>
     <row r="31" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AX31" s="37"/>
-      <c r="BA31" s="37"/>
-      <c r="BD31" s="37"/>
-      <c r="BG31" s="37"/>
-      <c r="BJ31" s="37"/>
-      <c r="BM31" s="37"/>
-      <c r="BP31" s="37"/>
-      <c r="BS31" s="37"/>
-      <c r="BV31" s="37"/>
-      <c r="BY31" s="37"/>
-      <c r="CB31" s="37"/>
-      <c r="CE31" s="37"/>
+      <c r="K31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AU31" s="34"/>
+      <c r="AX31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BD31" s="34"/>
+      <c r="BG31" s="34"/>
+      <c r="BJ31" s="34"/>
+      <c r="BM31" s="34"/>
+      <c r="BP31" s="34"/>
+      <c r="BS31" s="34"/>
+      <c r="BV31" s="34"/>
+      <c r="BY31" s="34"/>
+      <c r="CB31" s="34"/>
+      <c r="CE31" s="34"/>
     </row>
     <row r="32" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AU32" s="37"/>
-      <c r="AX32" s="37"/>
-      <c r="BA32" s="37"/>
-      <c r="BD32" s="37"/>
-      <c r="BG32" s="37"/>
-      <c r="BJ32" s="37"/>
-      <c r="BM32" s="37"/>
-      <c r="BP32" s="37"/>
-      <c r="BS32" s="37"/>
-      <c r="BV32" s="37"/>
-      <c r="BY32" s="37"/>
-      <c r="CB32" s="37"/>
-      <c r="CE32" s="37"/>
+      <c r="K32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AI32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AU32" s="34"/>
+      <c r="AX32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BD32" s="34"/>
+      <c r="BG32" s="34"/>
+      <c r="BJ32" s="34"/>
+      <c r="BM32" s="34"/>
+      <c r="BP32" s="34"/>
+      <c r="BS32" s="34"/>
+      <c r="BV32" s="34"/>
+      <c r="BY32" s="34"/>
+      <c r="CB32" s="34"/>
+      <c r="CE32" s="34"/>
     </row>
     <row r="33" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AR33" s="37"/>
-      <c r="AU33" s="37"/>
-      <c r="AX33" s="37"/>
-      <c r="BA33" s="37"/>
-      <c r="BD33" s="37"/>
-      <c r="BG33" s="37"/>
-      <c r="BJ33" s="37"/>
-      <c r="BM33" s="37"/>
-      <c r="BP33" s="37"/>
-      <c r="BS33" s="37"/>
-      <c r="BV33" s="37"/>
-      <c r="BY33" s="37"/>
-      <c r="CB33" s="37"/>
-      <c r="CE33" s="37"/>
+      <c r="K33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AO33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AU33" s="34"/>
+      <c r="AX33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BG33" s="34"/>
+      <c r="BJ33" s="34"/>
+      <c r="BM33" s="34"/>
+      <c r="BP33" s="34"/>
+      <c r="BS33" s="34"/>
+      <c r="BV33" s="34"/>
+      <c r="BY33" s="34"/>
+      <c r="CB33" s="34"/>
+      <c r="CE33" s="34"/>
     </row>
     <row r="34" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BM34" s="37"/>
-      <c r="BP34" s="37"/>
-      <c r="BS34" s="37"/>
-      <c r="BV34" s="37"/>
-      <c r="BY34" s="37"/>
-      <c r="CB34" s="37"/>
-      <c r="CE34" s="37"/>
+      <c r="K34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AU34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BJ34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BP34" s="34"/>
+      <c r="BS34" s="34"/>
+      <c r="BV34" s="34"/>
+      <c r="BY34" s="34"/>
+      <c r="CB34" s="34"/>
+      <c r="CE34" s="34"/>
     </row>
     <row r="35" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BM35" s="37"/>
-      <c r="BP35" s="37"/>
-      <c r="BS35" s="37"/>
-      <c r="BV35" s="37"/>
-      <c r="BY35" s="37"/>
-      <c r="CB35" s="37"/>
-      <c r="CE35" s="37"/>
+      <c r="K35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AU35" s="34"/>
+      <c r="AX35" s="34"/>
+      <c r="BA35" s="34"/>
+      <c r="BD35" s="34"/>
+      <c r="BG35" s="34"/>
+      <c r="BJ35" s="34"/>
+      <c r="BM35" s="34"/>
+      <c r="BP35" s="34"/>
+      <c r="BS35" s="34"/>
+      <c r="BV35" s="34"/>
+      <c r="BY35" s="34"/>
+      <c r="CB35" s="34"/>
+      <c r="CE35" s="34"/>
     </row>
     <row r="36" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AX36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BD36" s="37"/>
-      <c r="BG36" s="37"/>
-      <c r="BJ36" s="37"/>
-      <c r="BM36" s="37"/>
-      <c r="BP36" s="37"/>
-      <c r="BS36" s="37"/>
-      <c r="BV36" s="37"/>
-      <c r="BY36" s="37"/>
-      <c r="CB36" s="37"/>
-      <c r="CE36" s="37"/>
+      <c r="K36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AU36" s="34"/>
+      <c r="AX36" s="34"/>
+      <c r="BA36" s="34"/>
+      <c r="BD36" s="34"/>
+      <c r="BG36" s="34"/>
+      <c r="BJ36" s="34"/>
+      <c r="BM36" s="34"/>
+      <c r="BP36" s="34"/>
+      <c r="BS36" s="34"/>
+      <c r="BV36" s="34"/>
+      <c r="BY36" s="34"/>
+      <c r="CB36" s="34"/>
+      <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BM37" s="37"/>
-      <c r="BP37" s="37"/>
-      <c r="BS37" s="37"/>
-      <c r="BV37" s="37"/>
-      <c r="BY37" s="37"/>
-      <c r="CB37" s="37"/>
-      <c r="CE37" s="37"/>
+      <c r="K37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="BA37" s="34"/>
+      <c r="BD37" s="34"/>
+      <c r="BG37" s="34"/>
+      <c r="BJ37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BP37" s="34"/>
+      <c r="BS37" s="34"/>
+      <c r="BV37" s="34"/>
+      <c r="BY37" s="34"/>
+      <c r="CB37" s="34"/>
+      <c r="CE37" s="34"/>
     </row>
     <row r="38" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AL38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AU38" s="37"/>
-      <c r="AX38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BD38" s="37"/>
-      <c r="BG38" s="37"/>
-      <c r="BJ38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BP38" s="37"/>
-      <c r="BS38" s="37"/>
-      <c r="BV38" s="37"/>
-      <c r="BY38" s="37"/>
-      <c r="CB38" s="37"/>
-      <c r="CE38" s="37"/>
+      <c r="K38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AU38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="BA38" s="34"/>
+      <c r="BD38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BJ38" s="34"/>
+      <c r="BM38" s="34"/>
+      <c r="BP38" s="34"/>
+      <c r="BS38" s="34"/>
+      <c r="BV38" s="34"/>
+      <c r="BY38" s="34"/>
+      <c r="CB38" s="34"/>
+      <c r="CE38" s="34"/>
     </row>
     <row r="39" spans="2:83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="34"/>
+      <c r="E40" s="34"/>
     </row>
     <row r="41" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C41" s="37"/>
+      <c r="C41" s="34"/>
     </row>
     <row r="42" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C42" s="37"/>
+      <c r="C42" s="34"/>
     </row>
     <row r="43" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C43" s="37"/>
+      <c r="C43" s="34"/>
     </row>
     <row r="44" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C44" s="37"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="45" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C45" s="37"/>
+      <c r="C45" s="34"/>
     </row>
     <row r="46" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C46" s="37"/>
+      <c r="C46" s="34"/>
     </row>
     <row r="47" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C47" s="37"/>
+      <c r="C47" s="34"/>
     </row>
     <row r="48" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="C48" s="37"/>
+      <c r="C48" s="34"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="37"/>
+      <c r="C49" s="34"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="37"/>
+      <c r="C50" s="34"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="37"/>
+      <c r="C51" s="34"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="37"/>
+      <c r="C52" s="34"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="37"/>
+      <c r="C53" s="34"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="37"/>
+      <c r="C54" s="34"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="37"/>
+      <c r="C55" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4780,7 +5098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -4797,11 +5115,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -4809,11 +5127,11 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -4821,23 +5139,23 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="A3" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>264</v>
+      <c r="B4" s="42" t="s">
+        <v>263</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>229</v>
@@ -4846,12 +5164,12 @@
         <v>206</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="42" t="s">
         <v>209</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -4860,1330 +5178,1330 @@
     </row>
     <row r="5" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>359</v>
-      </c>
       <c r="G6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="F7" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="F8" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>283</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>278</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="42" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="A11" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="F12" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>280</v>
+      <c r="G12" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B13" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>280</v>
+      <c r="F13" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="B14" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>280</v>
+      <c r="F14" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="B15" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>391</v>
+      <c r="F15" s="36" t="s">
+        <v>390</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B16" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>385</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>386</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>284</v>
+      <c r="G16" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="C17" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>284</v>
+      <c r="G17" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="A18" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="B19" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>280</v>
+      <c r="F19" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>280</v>
+      <c r="F20" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="C21" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>280</v>
+      <c r="F21" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="B22" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>280</v>
+      <c r="F22" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="B23" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>284</v>
+      <c r="G23" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>284</v>
+      <c r="G24" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>280</v>
+      <c r="F25" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="B26" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>280</v>
+      <c r="F26" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="B27" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="F27" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="N27" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="M27" s="38" t="s">
+      <c r="O27" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="P27" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="N27" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="P27" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q27" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="R27" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="S27" s="41" t="s">
-        <v>280</v>
+      <c r="Q27" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="B28" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>280</v>
+      <c r="F28" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>279</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="N28" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="N28" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="O28" s="38" t="s">
-        <v>342</v>
+      <c r="O28" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="S28" s="42" t="s">
-        <v>284</v>
+      <c r="R28" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="C29" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>284</v>
+      <c r="G29" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>283</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="M29" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="N29" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="N29" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="O29" s="38" t="s">
-        <v>342</v>
+      <c r="O29" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R29" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="S29" s="42" t="s">
-        <v>284</v>
+      <c r="R29" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B30" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="F30" s="65" t="s">
+      <c r="D30" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="F30" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K30" s="37"/>
+      <c r="G30" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K30" s="34"/>
       <c r="L30" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="M30" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="M30" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="P30" s="38" t="s">
-        <v>350</v>
+      <c r="P30" s="35" t="s">
+        <v>349</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R30" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="S30" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="T30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AX30" s="37"/>
-      <c r="BA30" s="37"/>
-      <c r="BD30" s="37"/>
-      <c r="BG30" s="37"/>
-      <c r="BJ30" s="37"/>
-      <c r="BM30" s="37"/>
-      <c r="BP30" s="37"/>
-      <c r="BS30" s="37"/>
-      <c r="BV30" s="37"/>
-      <c r="BY30" s="37"/>
-      <c r="CB30" s="37"/>
-      <c r="CE30" s="37"/>
+      <c r="R30" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="T30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AL30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AU30" s="34"/>
+      <c r="AX30" s="34"/>
+      <c r="BA30" s="34"/>
+      <c r="BD30" s="34"/>
+      <c r="BG30" s="34"/>
+      <c r="BJ30" s="34"/>
+      <c r="BM30" s="34"/>
+      <c r="BP30" s="34"/>
+      <c r="BS30" s="34"/>
+      <c r="BV30" s="34"/>
+      <c r="BY30" s="34"/>
+      <c r="CB30" s="34"/>
+      <c r="CE30" s="34"/>
     </row>
     <row r="31" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B31" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="C31" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AX31" s="37"/>
-      <c r="BA31" s="37"/>
-      <c r="BD31" s="37"/>
-      <c r="BG31" s="37"/>
-      <c r="BJ31" s="37"/>
-      <c r="BM31" s="37"/>
-      <c r="BP31" s="37"/>
-      <c r="BS31" s="37"/>
-      <c r="BV31" s="37"/>
-      <c r="BY31" s="37"/>
-      <c r="CB31" s="37"/>
-      <c r="CE31" s="37"/>
+      <c r="G31" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AU31" s="34"/>
+      <c r="AX31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BD31" s="34"/>
+      <c r="BG31" s="34"/>
+      <c r="BJ31" s="34"/>
+      <c r="BM31" s="34"/>
+      <c r="BP31" s="34"/>
+      <c r="BS31" s="34"/>
+      <c r="BV31" s="34"/>
+      <c r="BY31" s="34"/>
+      <c r="CB31" s="34"/>
+      <c r="CE31" s="34"/>
     </row>
     <row r="32" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="C32" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="K32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AU32" s="37"/>
-      <c r="AX32" s="37"/>
-      <c r="BA32" s="37"/>
-      <c r="BD32" s="37"/>
-      <c r="BG32" s="37"/>
-      <c r="BJ32" s="37"/>
-      <c r="BM32" s="37"/>
-      <c r="BP32" s="37"/>
-      <c r="BS32" s="37"/>
-      <c r="BV32" s="37"/>
-      <c r="BY32" s="37"/>
-      <c r="CB32" s="37"/>
-      <c r="CE32" s="37"/>
+      <c r="D32" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AI32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AU32" s="34"/>
+      <c r="AX32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BD32" s="34"/>
+      <c r="BG32" s="34"/>
+      <c r="BJ32" s="34"/>
+      <c r="BM32" s="34"/>
+      <c r="BP32" s="34"/>
+      <c r="BS32" s="34"/>
+      <c r="BV32" s="34"/>
+      <c r="BY32" s="34"/>
+      <c r="CB32" s="34"/>
+      <c r="CE32" s="34"/>
     </row>
     <row r="33" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="C33" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="K33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AR33" s="37"/>
-      <c r="AU33" s="37"/>
-      <c r="AX33" s="37"/>
-      <c r="BA33" s="37"/>
-      <c r="BD33" s="37"/>
-      <c r="BG33" s="37"/>
-      <c r="BJ33" s="37"/>
-      <c r="BM33" s="37"/>
-      <c r="BP33" s="37"/>
-      <c r="BS33" s="37"/>
-      <c r="BV33" s="37"/>
-      <c r="BY33" s="37"/>
-      <c r="CB33" s="37"/>
-      <c r="CE33" s="37"/>
+      <c r="D33" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AO33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AU33" s="34"/>
+      <c r="AX33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BG33" s="34"/>
+      <c r="BJ33" s="34"/>
+      <c r="BM33" s="34"/>
+      <c r="BP33" s="34"/>
+      <c r="BS33" s="34"/>
+      <c r="BV33" s="34"/>
+      <c r="BY33" s="34"/>
+      <c r="CB33" s="34"/>
+      <c r="CE33" s="34"/>
     </row>
     <row r="34" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="C34" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BM34" s="37"/>
-      <c r="BP34" s="37"/>
-      <c r="BS34" s="37"/>
-      <c r="BV34" s="37"/>
-      <c r="BY34" s="37"/>
-      <c r="CB34" s="37"/>
-      <c r="CE34" s="37"/>
+      <c r="D34" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AU34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BJ34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BP34" s="34"/>
+      <c r="BS34" s="34"/>
+      <c r="BV34" s="34"/>
+      <c r="BY34" s="34"/>
+      <c r="CB34" s="34"/>
+      <c r="CE34" s="34"/>
     </row>
     <row r="35" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="C35" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="F35" s="65" t="s">
+      <c r="D35" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="F35" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BM35" s="37"/>
-      <c r="BP35" s="37"/>
-      <c r="BS35" s="37"/>
-      <c r="BV35" s="37"/>
-      <c r="BY35" s="37"/>
-      <c r="CB35" s="37"/>
-      <c r="CE35" s="37"/>
+      <c r="G35" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AU35" s="34"/>
+      <c r="AX35" s="34"/>
+      <c r="BA35" s="34"/>
+      <c r="BD35" s="34"/>
+      <c r="BG35" s="34"/>
+      <c r="BJ35" s="34"/>
+      <c r="BM35" s="34"/>
+      <c r="BP35" s="34"/>
+      <c r="BS35" s="34"/>
+      <c r="BV35" s="34"/>
+      <c r="BY35" s="34"/>
+      <c r="CB35" s="34"/>
+      <c r="CE35" s="34"/>
     </row>
     <row r="36" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="C36" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="F36" s="65" t="s">
+      <c r="D36" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AX36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BD36" s="37"/>
-      <c r="BG36" s="37"/>
-      <c r="BJ36" s="37"/>
-      <c r="BM36" s="37"/>
-      <c r="BP36" s="37"/>
-      <c r="BS36" s="37"/>
-      <c r="BV36" s="37"/>
-      <c r="BY36" s="37"/>
-      <c r="CB36" s="37"/>
-      <c r="CE36" s="37"/>
+      <c r="G36" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AU36" s="34"/>
+      <c r="AX36" s="34"/>
+      <c r="BA36" s="34"/>
+      <c r="BD36" s="34"/>
+      <c r="BG36" s="34"/>
+      <c r="BJ36" s="34"/>
+      <c r="BM36" s="34"/>
+      <c r="BP36" s="34"/>
+      <c r="BS36" s="34"/>
+      <c r="BV36" s="34"/>
+      <c r="BY36" s="34"/>
+      <c r="CB36" s="34"/>
+      <c r="CE36" s="34"/>
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="K37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BM37" s="37"/>
-      <c r="BP37" s="37"/>
-      <c r="BS37" s="37"/>
-      <c r="BV37" s="37"/>
-      <c r="BY37" s="37"/>
-      <c r="CB37" s="37"/>
-      <c r="CE37" s="37"/>
+      <c r="A37" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="K37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="BA37" s="34"/>
+      <c r="BD37" s="34"/>
+      <c r="BG37" s="34"/>
+      <c r="BJ37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BP37" s="34"/>
+      <c r="BS37" s="34"/>
+      <c r="BV37" s="34"/>
+      <c r="BY37" s="34"/>
+      <c r="CB37" s="34"/>
+      <c r="CE37" s="34"/>
     </row>
     <row r="38" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="B38" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="K38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AL38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AU38" s="37"/>
-      <c r="AX38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BD38" s="37"/>
-      <c r="BG38" s="37"/>
-      <c r="BJ38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BP38" s="37"/>
-      <c r="BS38" s="37"/>
-      <c r="BV38" s="37"/>
-      <c r="BY38" s="37"/>
-      <c r="CB38" s="37"/>
-      <c r="CE38" s="37"/>
+      <c r="F38" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AU38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="BA38" s="34"/>
+      <c r="BD38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BJ38" s="34"/>
+      <c r="BM38" s="34"/>
+      <c r="BP38" s="34"/>
+      <c r="BS38" s="34"/>
+      <c r="BV38" s="34"/>
+      <c r="BY38" s="34"/>
+      <c r="CB38" s="34"/>
+      <c r="CE38" s="34"/>
     </row>
     <row r="39" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="B39" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="C39" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>280</v>
+      <c r="F39" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="B40" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="C40" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>280</v>
+      <c r="F40" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="B41" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="C41" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>280</v>
+      <c r="F41" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="B42" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="C42" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>284</v>
+      <c r="F42" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:83" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="E43" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>284</v>
+      <c r="F43" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="C44" s="37"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="45" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="C45" s="37"/>
+      <c r="C45" s="34"/>
     </row>
     <row r="46" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="C46" s="37"/>
+      <c r="C46" s="34"/>
     </row>
     <row r="47" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="C47" s="37"/>
+      <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="C48" s="37"/>
+      <c r="C48" s="34"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="37"/>
+      <c r="C49" s="34"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="37"/>
+      <c r="C50" s="34"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="37"/>
+      <c r="C51" s="34"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="37"/>
+      <c r="C52" s="34"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="37"/>
+      <c r="C53" s="34"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="37"/>
+      <c r="C54" s="34"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="37"/>
+      <c r="C55" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6245,34 +6563,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -6285,311 +6604,643 @@
         <v>229</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="28"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="E4" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>474</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="65" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="37" t="s">
         <v>40</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>42</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>45</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="37" t="s">
         <v>47</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="37" t="s">
         <v>49</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="68" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="69" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="69" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="C19" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="C20" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>248</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>249</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>101</v>
@@ -6597,7 +7248,7 @@
     </row>
     <row r="33" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>103</v>
@@ -6605,7 +7256,7 @@
     </row>
     <row r="34" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>105</v>
@@ -6613,7 +7264,7 @@
     </row>
     <row r="35" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>107</v>
@@ -6623,62 +7274,82 @@
     <row r="37" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="37"/>
+      <c r="C39" s="34"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="37"/>
+      <c r="C40" s="34"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="37"/>
+      <c r="C41" s="34"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="37"/>
+      <c r="C42" s="34"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="37"/>
+      <c r="C43" s="34"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="37"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="37"/>
+      <c r="C45" s="34"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="37"/>
+      <c r="C46" s="34"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="37"/>
+      <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="37"/>
+      <c r="C48" s="34"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="37"/>
+      <c r="C49" s="34"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="37"/>
+      <c r="C50" s="34"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="37"/>
+      <c r="C51" s="34"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="37"/>
+      <c r="C52" s="34"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="37"/>
+      <c r="C53" s="34"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="37"/>
+      <c r="C54" s="34"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="37"/>
+      <c r="C55" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" location="Требования!R11C1" display="T-4"/>
+    <hyperlink ref="C5" location="Требования!R12C1" display="T-5"/>
+    <hyperlink ref="C6" location="Требования!R13C1" display="T-6"/>
+    <hyperlink ref="C7" location="Требования!R15C1" display="F-1"/>
+    <hyperlink ref="C8" location="Требования!R16C1" display="F-2/1"/>
+    <hyperlink ref="C9" location="Требования!R17C1" display="F-2/2"/>
+    <hyperlink ref="C10" location="Требования!R18C1" display="F-2/3"/>
+    <hyperlink ref="C11" location="Требования!R19C1" display="F-3/1"/>
+    <hyperlink ref="C12" location="Требования!R20C1" display="F-3/2"/>
+    <hyperlink ref="C13" location="Требования!R21C1" display="F-3/3"/>
+    <hyperlink ref="C14" location="Требования!R22C1" display="F-3/4"/>
+    <hyperlink ref="C15" location="'Тест кейсы'!R23C1" display="F-4"/>
+    <hyperlink ref="C16" location="Требования!R24C1" display="F-5"/>
+    <hyperlink ref="C17" location="Требования!R25C1" display="F-6"/>
+    <hyperlink ref="C18" location="Требования!R25C1" display="F-6"/>
+    <hyperlink ref="C19" location="Требования!R25C1" display="F-6"/>
+    <hyperlink ref="C20" location="Требования!R25C1" display="F-6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6701,18 +7372,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
